--- a/src/main/resources/static/приклад.xlsx
+++ b/src/main/resources/static/приклад.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Найменування суб'єкта господарювання</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t>Найменуваня органу держ. нагляду</t>
-  </si>
-  <si>
-    <t>Дата внесення до реєстру</t>
-  </si>
-  <si>
-    <t>Дата останнсього редагування</t>
   </si>
   <si>
     <t>Коментар</t>
@@ -601,7 +595,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -610,9 +604,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -950,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -970,12 +961,10 @@
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" customWidth="1"/>
     <col min="13" max="13" width="30.5703125" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:14">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1016,59 +1005,47 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:14">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
